--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
         <v>4.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="J3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
         <v>2.28</v>
@@ -997,16 +997,16 @@
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
         <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>13.5</v>
@@ -1027,13 +1027,13 @@
         <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
         <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>150</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="H7" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="I7" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
         <v>4.5</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1483,16 +1483,16 @@
         <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -1621,13 +1621,13 @@
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1636,13 +1636,13 @@
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
         <v>2.34</v>
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF9" t="n">
         <v>28</v>
@@ -1708,13 +1708,13 @@
         <v>60</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
         <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AO9" t="n">
         <v>24</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
         <v>4.5</v>
@@ -2026,13 +2026,13 @@
         <v>2.08</v>
       </c>
       <c r="I12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>1.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2155,10 +2155,10 @@
         <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -2167,7 +2167,7 @@
         <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,17 +653,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -679,106 +679,106 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.74</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.76</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,66 +923,66 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>2.82</v>
+        <v>980</v>
       </c>
       <c r="H4" t="n">
-        <v>2.98</v>
+        <v>1.93</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>2.34</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,64 +991,64 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,66 +1058,66 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
         <v>1.01</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.95</v>
+        <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1.97</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,66 +1733,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2138,125 +2138,260 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>20:10:00</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Boyaca Chico</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>America de Cali S.A</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="J14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
@@ -691,28 +691,28 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>2.44</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.99</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.09</v>
+        <v>2.96</v>
       </c>
       <c r="G4" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>2.48</v>
       </c>
       <c r="J4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.34</v>
       </c>
-      <c r="K4" t="n">
-        <v>980</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>FC Inter</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>1.74</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>2.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>2.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.97</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>1.41</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>1.74</v>
       </c>
       <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.02</v>
       </c>
-      <c r="K9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,78 +1733,78 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.1</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>1.97</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.34</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>4.6</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1816,10 +1816,10 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,260 +2138,1205 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L13" t="n">
         <v>1.01</v>
       </c>
-      <c r="K13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.01</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>950</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Grasshoppers Zurich</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Swiss Super League</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K16" t="n">
+        <v>950</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Academico de Viseu</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2025-10-30</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>20:10:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Boyaca Chico</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>America de Cali S.A</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="F21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I21" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="J21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
         <v>1.26</v>
@@ -805,10 +805,10 @@
         <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -820,22 +820,22 @@
         <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="O3" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -844,49 +844,49 @@
         <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>2.34</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
         <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -943,7 +943,7 @@
         <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I4" t="n">
         <v>2.48</v>
@@ -967,7 +967,7 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
         <v>1.66</v>
@@ -976,7 +976,7 @@
         <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
         <v>1.59</v>
@@ -991,58 +991,58 @@
         <v>1.4</v>
       </c>
       <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="n">
         <v>24</v>
       </c>
-      <c r="Y4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>28</v>
-      </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1078,10 +1078,10 @@
         <v>1.74</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1090,34 +1090,34 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="S5" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="V5" t="n">
         <v>1.22</v>
@@ -1126,19 +1126,19 @@
         <v>2.34</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1150,34 +1150,34 @@
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
         <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1213,7 @@
         <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
         <v>12</v>
@@ -1222,7 +1222,7 @@
         <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.18</v>
@@ -1237,7 +1237,7 @@
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q6" t="n">
         <v>1.4</v>
@@ -1249,7 +1249,7 @@
         <v>1.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
@@ -1258,13 +1258,13 @@
         <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X6" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
         <v>130</v>
@@ -1279,13 +1279,13 @@
         <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>160</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1297,7 +1297,7 @@
         <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>14.5</v>
@@ -1309,7 +1309,7 @@
         <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AO6" t="n">
         <v>150</v>
@@ -1348,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I7" t="n">
         <v>2.68</v>
@@ -1363,10 +1363,10 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>1.82</v>
       </c>
       <c r="O7" t="n">
         <v>1.58</v>
@@ -1378,16 +1378,16 @@
         <v>2.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="S7" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
         <v>1.59</v>
@@ -1396,58 +1396,58 @@
         <v>1.33</v>
       </c>
       <c r="X7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
         <v>4.3</v>
@@ -1495,7 +1495,7 @@
         <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1507,19 +1507,19 @@
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q8" t="n">
         <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U8" t="n">
         <v>2.74</v>
@@ -1528,7 +1528,7 @@
         <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X8" t="n">
         <v>44</v>
@@ -1537,43 +1537,43 @@
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
         <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AM8" t="n">
         <v>60</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
         <v>1.03</v>
@@ -1660,10 +1660,10 @@
         <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G10" t="n">
         <v>4.2</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="O10" t="n">
         <v>1.28</v>
@@ -1780,13 +1780,13 @@
         <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T10" t="n">
         <v>1.01</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
-        <v>9.199999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1912,34 +1912,34 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q11" t="n">
         <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="V11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="n">
         <v>230</v>
@@ -1948,43 +1948,43 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AD11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="n">
         <v>420</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="n">
         <v>290</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>280</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AO11" t="n">
         <v>600</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G12" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H12" t="n">
         <v>3.05</v>
@@ -2047,7 +2047,7 @@
         <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
         <v>2.28</v>
@@ -2062,25 +2062,25 @@
         <v>1.93</v>
       </c>
       <c r="U12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="n">
         <v>9.800000000000001</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>1.71</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P13" t="n">
         <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
         <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -2425,109 +2425,109 @@
         <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I15" t="n">
         <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
         <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="G16" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
         <v>1.53</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2710,7 +2710,7 @@
         <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -2719,10 +2719,10 @@
         <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q17" t="n">
         <v>2.34</v>
@@ -2734,28 +2734,28 @@
         <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2767,37 +2767,37 @@
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
         <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.01</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.01</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>3.4</v>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="H20" t="n">
         <v>2.06</v>
@@ -3109,100 +3109,100 @@
         <v>2.32</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
         <v>1.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
         <v>1.26</v>
@@ -805,10 +805,10 @@
         <v>3.15</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -817,25 +817,25 @@
         <v>2.44</v>
       </c>
       <c r="K3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -844,10 +844,10 @@
         <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.34</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.6</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.5</v>
@@ -856,37 +856,37 @@
         <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1084,7 +1084,7 @@
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
         <v>4.9</v>
@@ -1096,7 +1096,7 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
         <v>1.17</v>
@@ -1111,7 +1111,7 @@
         <v>1.66</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="T5" t="n">
         <v>1.6</v>
@@ -1129,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
         <v>48</v>
@@ -1159,10 +1159,10 @@
         <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
         <v>6.6</v>
@@ -1240,7 +1240,7 @@
         <v>2.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
         <v>1.83</v>
@@ -1270,19 +1270,19 @@
         <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
         <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
@@ -1306,10 +1306,10 @@
         <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO6" t="n">
         <v>150</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>2.34</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,16 +1366,16 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.82</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.58</v>
       </c>
       <c r="P7" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
         <v>1.13</v>
@@ -1390,10 +1390,10 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
@@ -1501,88 +1501,88 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="R8" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="S8" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="U8" t="n">
         <v>2.74</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1621,13 +1621,13 @@
         <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1645,7 +1645,7 @@
         <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R9" t="n">
         <v>1.53</v>
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.2</v>
+        <v>1.18</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>1.24</v>
       </c>
       <c r="H10" t="n">
-        <v>1.99</v>
+        <v>1.49</v>
       </c>
       <c r="I10" t="n">
-        <v>2.24</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>1.96</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>1.96</v>
+        <v>2.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.72</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>1.31</v>
+        <v>4.8</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="G11" t="n">
-        <v>1.24</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>2.32</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>8.800000000000001</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>1.84</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.58</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>2.12</v>
+        <v>2.74</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="W11" t="n">
-        <v>4.6</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2044,10 +2044,10 @@
         <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
         <v>2.28</v>
@@ -2074,7 +2074,7 @@
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>18.5</v>
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>1.71</v>
+        <v>2.68</v>
       </c>
       <c r="O13" t="n">
         <v>1.07</v>
       </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.03</v>
@@ -2200,10 +2200,10 @@
         <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2299,7 +2299,7 @@
         <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -2311,13 +2311,13 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q14" t="n">
         <v>1.98</v>
@@ -2338,7 +2338,7 @@
         <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X14" t="n">
         <v>16.5</v>
@@ -2374,7 +2374,7 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
@@ -2446,25 +2446,25 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
         <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="T15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
         <v>2.42</v>
@@ -2479,16 +2479,16 @@
         <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
@@ -2500,16 +2500,16 @@
         <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
         <v>18.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
         <v>65</v>
@@ -2527,7 +2527,7 @@
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
@@ -2581,7 +2581,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>4.2</v>
@@ -2716,10 +2716,10 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
         <v>1.67</v>
@@ -2731,7 +2731,7 @@
         <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -2755,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2797,7 +2797,7 @@
         <v>70</v>
       </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="O18" t="n">
         <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G19" t="n">
         <v>2.8</v>
@@ -2971,10 +2971,10 @@
         <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
         <v>980</v>
@@ -2986,13 +2986,13 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O19" t="n">
         <v>1.07</v>
       </c>
       <c r="P19" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
         <v>1.95</v>
@@ -3001,7 +3001,7 @@
         <v>1.16</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3010,7 +3010,7 @@
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
         <v>1.56</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
         <v>2.06</v>
       </c>
       <c r="I20" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="O20" t="n">
         <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3145,55 +3145,55 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="W20" t="n">
         <v>1.26</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,112 +3232,247 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="G21" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
         <v>1.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>22:20:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Llaneros FC</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medellin</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -685,7 +685,7 @@
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
         <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -817,7 +817,7 @@
         <v>2.44</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.58</v>
@@ -826,16 +826,16 @@
         <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.48</v>
+        <v>2.14</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="P3" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -844,49 +844,49 @@
         <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -943,10 +943,10 @@
         <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
@@ -961,34 +961,34 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>1.66</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
         <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1024,7 +1024,7 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>55</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
@@ -1090,40 +1090,40 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
         <v>28</v>
@@ -1132,7 +1132,7 @@
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
@@ -1141,7 +1141,7 @@
         <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
@@ -1150,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1162,10 +1162,10 @@
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.18</v>
@@ -1231,34 +1231,34 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
         <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X6" t="n">
         <v>980</v>
@@ -1270,19 +1270,19 @@
         <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AE6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
         <v>11.5</v>
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
         <v>120</v>
@@ -1303,10 +1303,10 @@
         <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
         <v>3.8</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.76</v>
+        <v>3.25</v>
       </c>
       <c r="G7" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="H7" t="n">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="I7" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
-        <v>2.34</v>
+        <v>2.84</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="O7" t="n">
         <v>1.58</v>
       </c>
       <c r="P7" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>2.72</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="R8" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
         <v>1.46</v>
       </c>
       <c r="U8" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="I9" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,79 +1636,79 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.28</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="W9" t="n">
         <v>1.13</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G10" t="n">
         <v>1.24</v>
       </c>
       <c r="H10" t="n">
-        <v>1.49</v>
+        <v>12.5</v>
       </c>
       <c r="I10" t="n">
         <v>22</v>
@@ -1771,25 +1771,25 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
         <v>1.65</v>
@@ -1798,7 +1798,7 @@
         <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X10" t="n">
         <v>38</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
         <v>70</v>
@@ -1825,10 +1825,10 @@
         <v>430</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
@@ -1837,19 +1837,19 @@
         <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>290</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AO10" t="n">
         <v>620</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.09</v>
+        <v>3.45</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,22 +1906,22 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1933,7 +1933,7 @@
         <v>1.76</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>2.76</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>3.05</v>
@@ -2047,10 +2047,10 @@
         <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
         <v>1.27</v>
@@ -2068,7 +2068,7 @@
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
@@ -2101,7 +2101,7 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="I13" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>2.68</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.87</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
@@ -2299,7 +2299,7 @@
         <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -2317,7 +2317,7 @@
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
         <v>1.98</v>
@@ -2326,7 +2326,7 @@
         <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
         <v>1.83</v>
@@ -2338,7 +2338,7 @@
         <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X14" t="n">
         <v>16.5</v>
@@ -2365,7 +2365,7 @@
         <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
         <v>980</v>
@@ -2431,13 +2431,13 @@
         <v>2.02</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,40 +2446,40 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P15" t="n">
         <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W15" t="n">
         <v>1.37</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
@@ -2494,7 +2494,7 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
         <v>980</v>
@@ -2506,7 +2506,7 @@
         <v>18.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>980</v>
@@ -2563,16 +2563,16 @@
         <v>1.94</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,19 +2581,19 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
         <v>1.81</v>
@@ -2695,13 +2695,13 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
         <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J17" t="n">
         <v>3.3</v>
@@ -2710,7 +2710,7 @@
         <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -2722,7 +2722,7 @@
         <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
         <v>2.34</v>
@@ -2731,7 +2731,7 @@
         <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
@@ -2740,7 +2740,7 @@
         <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>1.32</v>
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>1.66</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
         <v>2.06</v>
@@ -3118,31 +3118,31 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>1.52</v>
+        <v>2.58</v>
       </c>
       <c r="O20" t="n">
         <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V20" t="n">
         <v>1.84</v>
@@ -3151,58 +3151,58 @@
         <v>1.26</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I21" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>1.58</v>
+        <v>2.76</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W21" t="n">
         <v>1.27</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="G22" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>1.37</v>
+        <v>1.74</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="J22" t="n">
-        <v>1.79</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,16 +3391,16 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="O22" t="n">
         <v>1.02</v>
       </c>
       <c r="P22" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="R22" t="n">
         <v>1.21</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="W22" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H3" t="n">
         <v>2.38</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
         <v>2.44</v>
@@ -850,7 +850,7 @@
         <v>1.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
         <v>1.28</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G4" t="n">
         <v>3.45</v>
@@ -946,7 +946,7 @@
         <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
@@ -967,16 +967,16 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
         <v>1.6</v>
@@ -985,13 +985,13 @@
         <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
         <v>13.5</v>
@@ -1006,7 +1006,7 @@
         <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
@@ -1024,19 +1024,19 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
         <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
         <v>26</v>
@@ -1075,10 +1075,10 @@
         <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
         <v>5.4</v>
@@ -1087,61 +1087,61 @@
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
         <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
@@ -1150,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1162,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>15.5</v>
@@ -1171,13 +1171,13 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="G6" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="H6" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
         <v>7.2</v>
@@ -1231,37 +1231,37 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
@@ -1279,37 +1279,37 @@
         <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>160</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
         <v>150</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="G7" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="O7" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="X7" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL7" t="n">
         <v>110</v>
       </c>
-      <c r="AK7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>120</v>
-      </c>
       <c r="AM7" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>5.1</v>
@@ -1501,88 +1501,88 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U8" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
         <v>90</v>
       </c>
       <c r="AB8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>22</v>
       </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>28</v>
-      </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1624,13 +1624,13 @@
         <v>1.63</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1663,7 +1663,7 @@
         <v>2.58</v>
       </c>
       <c r="W9" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1780,13 +1780,13 @@
         <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
         <v>2.22</v>
@@ -1795,7 +1795,7 @@
         <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W10" t="n">
         <v>4.9</v>
@@ -1804,7 +1804,7 @@
         <v>38</v>
       </c>
       <c r="Y10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="n">
         <v>240</v>
@@ -1819,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AE10" t="n">
         <v>430</v>
@@ -1831,7 +1831,7 @@
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI10" t="n">
         <v>290</v>
@@ -1843,13 +1843,13 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
         <v>290</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AO10" t="n">
         <v>620</v>
@@ -1888,25 +1888,25 @@
         <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I11" t="n">
         <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>1.98</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
@@ -1915,19 +1915,19 @@
         <v>1.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S11" t="n">
         <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
         <v>1.76</v>
@@ -1936,58 +1936,58 @@
         <v>1.32</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
@@ -2035,7 +2035,7 @@
         <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
@@ -2044,7 +2044,7 @@
         <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
         <v>1.72</v>
@@ -2068,10 +2068,10 @@
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>10.5</v>
@@ -2083,10 +2083,10 @@
         <v>50</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD12" t="n">
         <v>13</v>
@@ -2101,7 +2101,7 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>3.7</v>
@@ -2176,31 +2176,31 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q13" t="n">
         <v>1.99</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="W13" t="n">
         <v>1.46</v>
@@ -2215,7 +2215,7 @@
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
         <v>14</v>
@@ -2224,7 +2224,7 @@
         <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
         <v>36</v>
@@ -2239,7 +2239,7 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
         <v>60</v>
@@ -2248,7 +2248,7 @@
         <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
         <v>120</v>
@@ -2257,7 +2257,7 @@
         <v>40</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.87</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
@@ -2299,13 +2299,13 @@
         <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2317,34 +2317,34 @@
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
         <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X14" t="n">
         <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
@@ -2353,13 +2353,13 @@
         <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
         <v>70</v>
@@ -2368,7 +2368,7 @@
         <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>980</v>
@@ -2389,7 +2389,7 @@
         <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>95</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="I15" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -2464,40 +2464,40 @@
         <v>2.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AA15" t="n">
         <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AF15" t="n">
         <v>980</v>
@@ -2512,22 +2512,22 @@
         <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL15" t="n">
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G16" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -2575,94 +2575,94 @@
         <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
         <v>2.4</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.61</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.03</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2698,13 +2698,13 @@
         <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
         <v>2.24</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
         <v>3.35</v>
@@ -2716,28 +2716,28 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
         <v>2.34</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
         <v>1.8</v>
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
         <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>1.61</v>
+        <v>2.62</v>
       </c>
       <c r="O18" t="n">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -2977,10 +2977,10 @@
         <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,31 +2992,31 @@
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R19" t="n">
         <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
         <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
         <v>1.64</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y19" t="n">
         <v>14.5</v>
@@ -3025,13 +3025,13 @@
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
@@ -3100,7 +3100,7 @@
         <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H20" t="n">
         <v>2.06</v>
@@ -3115,22 +3115,22 @@
         <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
         <v>1.23</v>
@@ -3139,7 +3139,7 @@
         <v>3.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U20" t="n">
         <v>1.84</v>
@@ -3148,7 +3148,7 @@
         <v>1.84</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3157,31 +3157,31 @@
         <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="n">
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
         <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG20" t="n">
         <v>18</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
         <v>55</v>
@@ -3190,10 +3190,10 @@
         <v>120</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM20" t="n">
         <v>180</v>
@@ -3202,7 +3202,7 @@
         <v>100</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="I21" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
         <v>2.76</v>
@@ -3262,34 +3262,34 @@
         <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
         <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
         <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W21" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="Z21" t="n">
         <v>980</v>
@@ -3301,10 +3301,10 @@
         <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
         <v>980</v>
@@ -3322,10 +3322,10 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL21" t="n">
         <v>110</v>
@@ -3373,7 +3373,7 @@
         <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I22" t="n">
         <v>1.85</v>
@@ -3385,16 +3385,16 @@
         <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>1.74</v>
+        <v>2.98</v>
       </c>
       <c r="O22" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="P22" t="n">
         <v>1.74</v>
@@ -3403,10 +3403,10 @@
         <v>2.14</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3418,43 +3418,43 @@
         <v>2.16</v>
       </c>
       <c r="W22" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -685,7 +685,7 @@
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
         <v>4.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.05</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -835,7 +835,7 @@
         <v>1.37</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -844,22 +844,22 @@
         <v>6.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="U3" t="n">
         <v>1.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
         <v>980</v>
@@ -868,10 +868,10 @@
         <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>980</v>
@@ -889,22 +889,22 @@
         <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK3" t="n">
         <v>100</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO3" t="n">
         <v>70</v>
@@ -940,43 +940,43 @@
         <v>3.05</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
         <v>1.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T4" t="n">
         <v>1.6</v>
@@ -985,10 +985,10 @@
         <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
@@ -997,52 +997,52 @@
         <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AB4" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
         <v>5.1</v>
@@ -1090,7 +1090,7 @@
         <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1105,34 +1105,34 @@
         <v>2.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T5" t="n">
         <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
         <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
         <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
@@ -1159,7 +1159,7 @@
         <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
         <v>18</v>
@@ -1177,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
         <v>1.32</v>
       </c>
       <c r="H6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
         <v>6.4</v>
@@ -1225,7 +1225,7 @@
         <v>7.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1240,16 +1240,16 @@
         <v>3.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
@@ -1258,31 +1258,31 @@
         <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X6" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
         <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1297,13 +1297,13 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
         <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G7" t="n">
         <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1360,28 +1360,28 @@
         <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P7" t="n">
         <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
         <v>2.04</v>
@@ -1390,13 +1390,13 @@
         <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
         <v>7.6</v>
@@ -1405,16 +1405,16 @@
         <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>36</v>
@@ -1426,7 +1426,7 @@
         <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
@@ -1495,13 +1495,13 @@
         <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
@@ -1510,13 +1510,13 @@
         <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R8" t="n">
         <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T8" t="n">
         <v>1.47</v>
@@ -1525,7 +1525,7 @@
         <v>2.84</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
         <v>2.2</v>
@@ -1537,22 +1537,22 @@
         <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC8" t="n">
         <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
         <v>16.5</v>
@@ -1564,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1576,10 +1576,10 @@
         <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
         <v>25</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
         <v>1.49</v>
       </c>
       <c r="I9" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1639,28 +1639,28 @@
         <v>3.45</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
         <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W9" t="n">
         <v>1.17</v>
@@ -1690,7 +1690,7 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="n">
         <v>980</v>
@@ -1705,10 +1705,10 @@
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1753,13 +1753,13 @@
         <v>1.24</v>
       </c>
       <c r="H10" t="n">
-        <v>12.5</v>
+        <v>1.49</v>
       </c>
       <c r="I10" t="n">
         <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="K10" t="n">
         <v>9</v>
@@ -1771,7 +1771,7 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
         <v>1.16</v>
@@ -1780,13 +1780,13 @@
         <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
         <v>1.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="T10" t="n">
         <v>2.22</v>
@@ -1795,10 +1795,10 @@
         <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="X10" t="n">
         <v>38</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="n">
         <v>85</v>
@@ -1825,10 +1825,10 @@
         <v>430</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>55</v>
@@ -1837,13 +1837,13 @@
         <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
         <v>290</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I11" t="n">
         <v>2.3</v>
@@ -1897,10 +1897,10 @@
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1912,28 +1912,28 @@
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
         <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
         <v>1.76</v>
       </c>
       <c r="W11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -1942,43 +1942,43 @@
         <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
         <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>85</v>
+        <v>960</v>
       </c>
       <c r="AK11" t="n">
         <v>55</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2041,13 +2041,13 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
         <v>2.32</v>
@@ -2059,16 +2059,16 @@
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
         <v>10</v>
@@ -2080,34 +2080,34 @@
         <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
         <v>6.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
@@ -2116,13 +2116,13 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -2158,46 +2158,46 @@
         <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
         <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
         <v>1.61</v>
@@ -2206,10 +2206,10 @@
         <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
@@ -2218,16 +2218,16 @@
         <v>46</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
         <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
         <v>25</v>
@@ -2239,7 +2239,7 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
         <v>60</v>
@@ -2251,13 +2251,13 @@
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2317,19 +2317,19 @@
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
         <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
         <v>1.96</v>
@@ -2338,49 +2338,49 @@
         <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
         <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="n">
         <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
@@ -2428,31 +2428,31 @@
         <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="I15" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
         <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
         <v>1.54</v>
@@ -2461,70 +2461,70 @@
         <v>1.61</v>
       </c>
       <c r="S15" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U15" t="n">
         <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
         <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AB15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AG15" t="n">
         <v>18.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK15" t="n">
         <v>980</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>48</v>
-      </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
         <v>10.5</v>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G16" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2590,25 +2590,25 @@
         <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="R16" t="n">
         <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
         <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X16" t="n">
         <v>28</v>
@@ -2620,7 +2620,7 @@
         <v>42</v>
       </c>
       <c r="AA16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB16" t="n">
         <v>15.5</v>
@@ -2641,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
         <v>55</v>
@@ -2659,10 +2659,10 @@
         <v>980</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -2725,28 +2725,28 @@
         <v>1.69</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
         <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U17" t="n">
         <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -2755,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2779,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
         <v>85</v>
@@ -2791,13 +2791,13 @@
         <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
         <v>70</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="H18" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
@@ -2857,55 +2857,55 @@
         <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
         <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
         <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>15.5</v>
@@ -2914,25 +2914,25 @@
         <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
         <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.15</v>
@@ -2980,76 +2980,76 @@
         <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q19" t="n">
         <v>2.06</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
         <v>980</v>
@@ -3064,10 +3064,10 @@
         <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>2.06</v>
@@ -3115,28 +3115,28 @@
         <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O20" t="n">
         <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
         <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
         <v>1.96</v>
@@ -3151,25 +3151,25 @@
         <v>1.28</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
         <v>36</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
         <v>34</v>
@@ -3178,13 +3178,13 @@
         <v>36</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
         <v>120</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I21" t="n">
         <v>2.12</v>
@@ -3250,7 +3250,7 @@
         <v>3.55</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3265,10 +3265,10 @@
         <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
         <v>4.3</v>
@@ -3277,7 +3277,7 @@
         <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V21" t="n">
         <v>1.9</v>
@@ -3286,19 +3286,19 @@
         <v>1.26</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
         <v>8.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
         <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC21" t="n">
         <v>9.199999999999999</v>
@@ -3328,13 +3328,13 @@
         <v>95</v>
       </c>
       <c r="AL21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AO21" t="n">
         <v>980</v>
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.4</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="J22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S22" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.6</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,46 +3415,46 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="W22" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -694,7 +694,7 @@
         <v>1.36</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
         <v>2.72</v>
       </c>
       <c r="J3" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="K3" t="n">
         <v>3.05</v>
@@ -847,19 +847,19 @@
         <v>2.36</v>
       </c>
       <c r="U3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
         <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y3" t="n">
         <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
         <v>980</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="I4" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -967,7 +967,7 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
         <v>1.57</v>
@@ -979,70 +979,70 @@
         <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
         <v>38</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
@@ -1102,37 +1102,37 @@
         <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
         <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T5" t="n">
         <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
         <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
         <v>27</v>
       </c>
       <c r="Z5" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
@@ -1144,7 +1144,7 @@
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
@@ -1159,10 +1159,10 @@
         <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15.5</v>
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H6" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K6" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,25 +1231,25 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.94</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
         <v>2.18</v>
@@ -1261,58 +1261,58 @@
         <v>4.1</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
       </c>
       <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>12</v>
       </c>
-      <c r="AH6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G7" t="n">
         <v>4.6</v>
@@ -1351,10 +1351,10 @@
         <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.35</v>
@@ -1366,19 +1366,19 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" t="n">
         <v>2.42</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
         <v>4.3</v>
@@ -1387,13 +1387,13 @@
         <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X7" t="n">
         <v>11.5</v>
@@ -1414,7 +1414,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
         <v>36</v>
@@ -1429,13 +1429,13 @@
         <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ7" t="n">
         <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="n">
         <v>110</v>
@@ -1477,31 +1477,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
@@ -1513,37 +1513,37 @@
         <v>1.42</v>
       </c>
       <c r="R8" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U8" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V8" t="n">
         <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
         <v>38</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
         <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
         <v>12.5</v>
@@ -1558,7 +1558,7 @@
         <v>16.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>16</v>
@@ -1579,10 +1579,10 @@
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1624,7 @@
         <v>1.59</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
         <v>6.6</v>
@@ -1645,7 +1645,7 @@
         <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R9" t="n">
         <v>1.54</v>
@@ -1660,7 +1660,7 @@
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="W9" t="n">
         <v>1.17</v>
@@ -1753,7 +1753,7 @@
         <v>1.24</v>
       </c>
       <c r="H10" t="n">
-        <v>1.49</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>22</v>
@@ -1762,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1774,7 +1774,7 @@
         <v>3.45</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
         <v>2.6</v>
@@ -1783,10 +1783,10 @@
         <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S10" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
         <v>2.22</v>
@@ -1795,7 +1795,7 @@
         <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W10" t="n">
         <v>4.8</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="n">
         <v>85</v>
@@ -1825,10 +1825,10 @@
         <v>430</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>55</v>
@@ -1837,10 +1837,10 @@
         <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
         <v>2.08</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -1906,16 +1906,16 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
         <v>1.38</v>
@@ -1924,28 +1924,28 @@
         <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB11" t="n">
         <v>15.5</v>
@@ -1957,22 +1957,22 @@
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
         <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>960</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="n">
         <v>55</v>
@@ -1987,7 +1987,7 @@
         <v>50</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
@@ -2029,10 +2029,10 @@
         <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
         <v>1.5</v>
@@ -2041,49 +2041,49 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
         <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
         <v>6.8</v>
@@ -2095,13 +2095,13 @@
         <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>60</v>
@@ -2119,7 +2119,7 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
         <v>44</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I13" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.39</v>
@@ -2176,37 +2176,37 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
         <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
         <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13.5</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2317,16 +2317,16 @@
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
         <v>1.83</v>
@@ -2335,52 +2335,52 @@
         <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
@@ -2389,10 +2389,10 @@
         <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G15" t="n">
         <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I15" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
         <v>4.3</v>
@@ -2443,10 +2443,10 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.18</v>
@@ -2473,40 +2473,40 @@
         <v>2.02</v>
       </c>
       <c r="W15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
         <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
         <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
         <v>32</v>
@@ -2524,10 +2524,10 @@
         <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2560,19 +2560,19 @@
         <v>1.88</v>
       </c>
       <c r="G16" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.9</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.95</v>
-      </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2590,13 +2590,13 @@
         <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S16" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
         <v>1.6</v>
@@ -2605,10 +2605,10 @@
         <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X16" t="n">
         <v>28</v>
@@ -2623,7 +2623,7 @@
         <v>95</v>
       </c>
       <c r="AB16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
         <v>12</v>
@@ -2635,7 +2635,7 @@
         <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
@@ -2659,7 +2659,7 @@
         <v>980</v>
       </c>
       <c r="AN16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
         <v>42</v>
@@ -2698,16 +2698,16 @@
         <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.35</v>
       </c>
       <c r="L17" t="n">
         <v>1.52</v>
@@ -2737,22 +2737,22 @@
         <v>2.02</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
         <v>1.33</v>
       </c>
       <c r="X17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA17" t="n">
         <v>28</v>
@@ -2830,16 +2830,16 @@
         <v>2.56</v>
       </c>
       <c r="G18" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="H18" t="n">
         <v>2.96</v>
       </c>
       <c r="I18" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
@@ -2851,7 +2851,7 @@
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.43</v>
@@ -2860,22 +2860,22 @@
         <v>1.64</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
         <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
         <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
         <v>1.56</v>
@@ -2884,43 +2884,43 @@
         <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
         <v>70</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
         <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
       </c>
       <c r="AF18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
         <v>21</v>
       </c>
-      <c r="AG18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>24</v>
-      </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>960</v>
       </c>
       <c r="AJ18" t="n">
         <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="n">
         <v>65</v>
@@ -2965,7 +2965,7 @@
         <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.45</v>
@@ -3001,10 +3001,10 @@
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
         <v>1.98</v>
@@ -3013,7 +3013,7 @@
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
@@ -3031,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>18.5</v>
@@ -3049,7 +3049,7 @@
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
         <v>980</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="I20" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,76 +3121,76 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U20" t="n">
         <v>1.84</v>
       </c>
       <c r="V20" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W20" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="X20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z20" t="n">
         <v>12</v>
       </c>
-      <c r="Y20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AA20" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF20" t="n">
         <v>36</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>960</v>
       </c>
       <c r="AJ20" t="n">
         <v>120</v>
       </c>
       <c r="AK20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
         <v>95</v>
@@ -3199,10 +3199,10 @@
         <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AO20" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="G21" t="n">
         <v>4.9</v>
@@ -3241,7 +3241,7 @@
         <v>1.97</v>
       </c>
       <c r="I21" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
@@ -3265,7 +3265,7 @@
         <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="R21" t="n">
         <v>1.22</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="G22" t="n">
         <v>1000</v>
@@ -3376,10 +3376,10 @@
         <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="K22" t="n">
         <v>1000</v>
@@ -3391,19 +3391,19 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O22" t="n">
         <v>1.02</v>
       </c>
       <c r="P22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S22" t="n">
         <v>3.55</v>
@@ -3415,46 +3415,46 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="W22" t="n">
         <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
         <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
         <v>1.26</v>
@@ -706,7 +706,7 @@
         <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -715,61 +715,61 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I3" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J3" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="n">
         <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -832,28 +832,28 @@
         <v>1.7</v>
       </c>
       <c r="P3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T3" t="n">
         <v>2.36</v>
       </c>
       <c r="U3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X3" t="n">
         <v>7.8</v>
@@ -862,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="n">
         <v>11</v>
@@ -874,13 +874,13 @@
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG3" t="n">
         <v>980</v>
@@ -889,25 +889,25 @@
         <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>540</v>
       </c>
       <c r="AJ3" t="n">
         <v>120</v>
       </c>
       <c r="AK3" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G4" t="n">
         <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
         <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
         <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
@@ -997,10 +997,10 @@
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -1009,10 +1009,10 @@
         <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>980</v>
@@ -1024,10 +1024,10 @@
         <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
         <v>36</v>
@@ -1036,13 +1036,13 @@
         <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,10 +1102,10 @@
         <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
         <v>1.63</v>
@@ -1120,19 +1120,19 @@
         <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
         <v>2.36</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
         <v>27</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
@@ -1144,7 +1144,7 @@
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
@@ -1162,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
         <v>15.5</v>
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
@@ -1207,37 +1207,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q6" t="n">
         <v>1.4</v>
@@ -1246,73 +1246,73 @@
         <v>1.94</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X6" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1348,25 +1348,25 @@
         <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I7" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
@@ -1375,7 +1375,7 @@
         <v>1.58</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R7" t="n">
         <v>1.21</v>
@@ -1390,13 +1390,13 @@
         <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y7" t="n">
         <v>7.6</v>
@@ -1405,13 +1405,13 @@
         <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
         <v>11.5</v>
@@ -1420,34 +1420,34 @@
         <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
         <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
         <v>130</v>
       </c>
       <c r="AK7" t="n">
-        <v>75</v>
+        <v>530</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>540</v>
       </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>130</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>4.7</v>
@@ -1495,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1507,37 +1507,37 @@
         <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q8" t="n">
         <v>1.42</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U8" t="n">
         <v>2.86</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
         <v>38</v>
       </c>
       <c r="Y8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
         <v>100</v>
@@ -1552,10 +1552,10 @@
         <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
@@ -1564,10 +1564,10 @@
         <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>16</v>
@@ -1576,13 +1576,13 @@
         <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AO8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="I9" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
         <v>2.24</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="W9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1681,7 +1681,7 @@
         <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
@@ -1690,7 +1690,7 @@
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AG9" t="n">
         <v>980</v>
@@ -1705,19 +1705,19 @@
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>1.19</v>
       </c>
       <c r="G10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H10" t="n">
-        <v>8.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="I10" t="n">
         <v>22</v>
@@ -1771,40 +1771,40 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>1.66</v>
       </c>
       <c r="T10" t="n">
         <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W10" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="X10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="Z10" t="n">
         <v>240</v>
@@ -1819,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AE10" t="n">
         <v>430</v>
@@ -1837,19 +1837,19 @@
         <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
         <v>290</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="AO10" t="n">
         <v>620</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G11" t="n">
         <v>4.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,13 +1906,13 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
         <v>1.85</v>
@@ -1921,73 +1921,73 @@
         <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="W11" t="n">
         <v>1.31</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
         <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>100</v>
+        <v>960</v>
       </c>
       <c r="AK11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN11" t="n">
         <v>55</v>
       </c>
-      <c r="AL11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>50</v>
-      </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.66</v>
       </c>
-      <c r="G12" t="n">
-        <v>2.68</v>
-      </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2041,40 +2041,40 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
         <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>19.5</v>
@@ -2083,22 +2083,22 @@
         <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2110,13 +2110,13 @@
         <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
         <v>32</v>
@@ -2152,52 +2152,52 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.48</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
         <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
         <v>1.6</v>
@@ -2206,10 +2206,10 @@
         <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
@@ -2218,10 +2218,10 @@
         <v>46</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>14.5</v>
@@ -2233,7 +2233,7 @@
         <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2251,7 +2251,7 @@
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
         <v>36</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
         <v>4.9</v>
@@ -2302,7 +2302,7 @@
         <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.4</v>
@@ -2311,46 +2311,46 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U14" t="n">
         <v>2</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
         <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>530</v>
       </c>
       <c r="AB14" t="n">
         <v>8.800000000000001</v>
@@ -2362,37 +2362,37 @@
         <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
         <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15">
@@ -2422,73 +2422,73 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I15" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="R15" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="S15" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="U15" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="V15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
         <v>32</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
@@ -2497,37 +2497,37 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>95</v>
+        <v>530</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="G16" t="n">
         <v>1.96</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,28 +2581,28 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q16" t="n">
         <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
         <v>1.29</v>
@@ -2620,7 +2620,7 @@
         <v>42</v>
       </c>
       <c r="AA16" t="n">
-        <v>95</v>
+        <v>530</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2656,7 +2656,7 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
         <v>11</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G17" t="n">
         <v>3.9</v>
       </c>
-      <c r="G17" t="n">
-        <v>3.95</v>
-      </c>
       <c r="H17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
@@ -2710,7 +2710,7 @@
         <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -2719,34 +2719,34 @@
         <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.199999999999999</v>
@@ -2755,7 +2755,7 @@
         <v>12.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2773,7 +2773,7 @@
         <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
@@ -2788,16 +2788,16 @@
         <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
         <v>70</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2830,16 +2830,16 @@
         <v>2.56</v>
       </c>
       <c r="G18" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I18" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
@@ -2851,19 +2851,19 @@
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
         <v>3.5</v>
@@ -2875,22 +2875,22 @@
         <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="n">
         <v>1.56</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="AB18" t="n">
         <v>9.6</v>
@@ -2902,7 +2902,7 @@
         <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="n">
         <v>17.5</v>
@@ -2914,25 +2914,25 @@
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>960</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -2995,7 +2995,7 @@
         <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
@@ -3004,52 +3004,52 @@
         <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V19" t="n">
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="AJ19" t="n">
         <v>980</v>
@@ -3058,16 +3058,16 @@
         <v>980</v>
       </c>
       <c r="AL19" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN19" t="n">
         <v>55</v>
       </c>
-      <c r="AM19" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>26</v>
-      </c>
       <c r="AO19" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G20" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="I20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,25 +3121,25 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q20" t="n">
         <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
         <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>1.84</v>
@@ -3148,7 +3148,7 @@
         <v>1.9</v>
       </c>
       <c r="W20" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3163,46 +3163,46 @@
         <v>30</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
         <v>960</v>
       </c>
       <c r="AJ20" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AL20" t="n">
-        <v>95</v>
+        <v>370</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G21" t="n">
         <v>4.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
@@ -3271,7 +3271,7 @@
         <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
         <v>2.08</v>
@@ -3280,7 +3280,7 @@
         <v>1.79</v>
       </c>
       <c r="V21" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W21" t="n">
         <v>1.26</v>
@@ -3307,31 +3307,31 @@
         <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="n">
         <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AJ21" t="n">
         <v>150</v>
       </c>
       <c r="AK21" t="n">
-        <v>95</v>
+        <v>470</v>
       </c>
       <c r="AL21" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="AM21" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>150</v>
@@ -3376,10 +3376,10 @@
         <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="J22" t="n">
-        <v>2.16</v>
+        <v>1.09</v>
       </c>
       <c r="K22" t="n">
         <v>1000</v>
@@ -3391,22 +3391,22 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O22" t="n">
         <v>1.02</v>
       </c>
       <c r="P22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,13 +3415,13 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="W22" t="n">
         <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
         <v>10</v>
@@ -3436,7 +3436,7 @@
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD22" t="n">
         <v>14.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>7.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.26</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>1.37</v>
       </c>
       <c r="V2" t="n">
         <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>110</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AD2" t="n">
         <v>300</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
         <v>170</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AK2" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>300</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>5.7</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N3" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P3" t="n">
         <v>1.38</v>
@@ -838,19 +838,19 @@
         <v>2.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
         <v>6.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U3" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
         <v>220</v>
@@ -874,7 +874,7 @@
         <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>290</v>
@@ -883,7 +883,7 @@
         <v>70</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U4" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO4" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="H5" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.58</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="T5" t="n">
         <v>1.64</v>
@@ -1120,64 +1120,64 @@
         <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI5" t="n">
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
         <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1216,37 +1216,37 @@
         <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K6" t="n">
         <v>7</v>
       </c>
-      <c r="K6" t="n">
-        <v>7.2</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T6" t="n">
         <v>1.78</v>
@@ -1258,13 +1258,13 @@
         <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
         <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="Z6" t="n">
         <v>120</v>
@@ -1273,28 +1273,28 @@
         <v>370</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD6" t="n">
         <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
@@ -1303,13 +1303,13 @@
         <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>120</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
         <v>4.6</v>
@@ -1354,52 +1354,52 @@
         <v>2.18</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
         <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W7" t="n">
         <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z7" t="n">
         <v>12.5</v>
@@ -1411,7 +1411,7 @@
         <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
         <v>11.5</v>
@@ -1423,13 +1423,13 @@
         <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="AJ7" t="n">
         <v>130</v>
@@ -1444,10 +1444,10 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1477,88 +1477,88 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="S8" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="U8" t="n">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
         <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>16</v>
@@ -1567,22 +1567,22 @@
         <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G9" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="I9" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
         <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1753,7 +1753,7 @@
         <v>1.23</v>
       </c>
       <c r="H10" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
         <v>22</v>
@@ -1762,31 +1762,31 @@
         <v>7</v>
       </c>
       <c r="K10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.16</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
         <v>2.22</v>
@@ -1801,7 +1801,7 @@
         <v>5.3</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="n">
         <v>210</v>
@@ -1822,7 +1822,7 @@
         <v>210</v>
       </c>
       <c r="AE10" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AF10" t="n">
         <v>8.4</v>
@@ -1852,7 +1852,7 @@
         <v>3.85</v>
       </c>
       <c r="AO10" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11">
@@ -1882,88 +1882,88 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
         <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH11" t="n">
         <v>18.5</v>
@@ -1975,19 +1975,19 @@
         <v>960</v>
       </c>
       <c r="AK11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
@@ -2041,28 +2041,28 @@
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>1.44</v>
@@ -2092,7 +2092,7 @@
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
@@ -2101,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>60</v>
@@ -2116,10 +2116,10 @@
         <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
         <v>44</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G13" t="n">
         <v>3.1</v>
@@ -2161,28 +2161,28 @@
         <v>2.48</v>
       </c>
       <c r="I13" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="Q13" t="n">
         <v>1.96</v>
@@ -2194,13 +2194,13 @@
         <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W13" t="n">
         <v>1.47</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
@@ -2305,28 +2305,28 @@
         <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>3.65</v>
       </c>
       <c r="T14" t="n">
         <v>1.84</v>
@@ -2380,16 +2380,16 @@
         <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
         <v>260</v>
@@ -2425,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
         <v>1.91</v>
@@ -2434,37 +2434,37 @@
         <v>1.96</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
         <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="R15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="T15" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U15" t="n">
         <v>2.6</v>
@@ -2488,10 +2488,10 @@
         <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
@@ -2521,7 +2521,7 @@
         <v>150</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
         <v>980</v>
@@ -2566,7 +2566,7 @@
         <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.85</v>
@@ -2575,49 +2575,49 @@
         <v>3.95</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q16" t="n">
         <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V16" t="n">
         <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X16" t="n">
         <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA16" t="n">
         <v>530</v>
@@ -2629,22 +2629,22 @@
         <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
         <v>27</v>
@@ -2653,13 +2653,13 @@
         <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO16" t="n">
         <v>42</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I17" t="n">
         <v>2.3</v>
@@ -2719,43 +2719,43 @@
         <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
         <v>2.36</v>
       </c>
       <c r="R17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U17" t="n">
         <v>1.94</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
         <v>12.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H18" t="n">
         <v>2.98</v>
@@ -2842,31 +2842,31 @@
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R18" t="n">
         <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
         <v>1.91</v>
@@ -2875,7 +2875,7 @@
         <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W18" t="n">
         <v>1.56</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
@@ -2980,40 +2980,40 @@
         <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
         <v>3.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
         <v>1.99</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W19" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
@@ -3028,7 +3028,7 @@
         <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>9.199999999999999</v>
@@ -3040,7 +3040,7 @@
         <v>230</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
@@ -3052,10 +3052,10 @@
         <v>350</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL19" t="n">
         <v>180</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="n">
         <v>4.9</v>
@@ -3127,7 +3127,7 @@
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q20" t="n">
         <v>2.08</v>
@@ -3148,7 +3148,7 @@
         <v>1.9</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
         <v>2.06</v>
@@ -3247,7 +3247,7 @@
         <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3262,7 +3262,7 @@
         <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q21" t="n">
         <v>2.18</v>
@@ -3277,7 +3277,7 @@
         <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
         <v>1.95</v>
@@ -3289,13 +3289,13 @@
         <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB21" t="n">
         <v>15.5</v>
@@ -3307,7 +3307,7 @@
         <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
         <v>980</v>
@@ -3334,10 +3334,10 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="G22" t="n">
         <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="I22" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,16 +3391,16 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O22" t="n">
         <v>1.02</v>
       </c>
       <c r="P22" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R22" t="n">
         <v>1.25</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -670,58 +670,58 @@
         <v>1.19</v>
       </c>
       <c r="G2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H2" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
         <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="V2" t="n">
         <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
         <v>110</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="n">
         <v>300</v>
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH2" t="n">
         <v>170</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G3" t="n">
         <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I3" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="M3" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="O3" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="P3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="R3" t="n">
         <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
         <v>1.32</v>
       </c>
       <c r="X3" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
         <v>220</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>290</v>
       </c>
       <c r="AF3" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
@@ -892,7 +892,7 @@
         <v>540</v>
       </c>
       <c r="AJ3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK3" t="n">
         <v>450</v>
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.38</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
         <v>1.34</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.7</v>
@@ -979,70 +979,70 @@
         <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
         <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
         <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN4" t="n">
         <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>44</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>12</v>
@@ -1222,79 +1222,79 @@
         <v>6.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="T6" t="n">
         <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="X6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="n">
         <v>120</v>
       </c>
       <c r="AA6" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE6" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
@@ -1306,10 +1306,10 @@
         <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO6" t="n">
         <v>120</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.54</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.45</v>
-      </c>
       <c r="P7" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="Z7" t="n">
         <v>12.5</v>
@@ -1408,19 +1408,19 @@
         <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
         <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AG7" t="n">
         <v>60</v>
@@ -1429,10 +1429,10 @@
         <v>40</v>
       </c>
       <c r="AI7" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK7" t="n">
         <v>530</v>
@@ -1444,10 +1444,10 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J8" t="n">
         <v>4.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.6</v>
       </c>
       <c r="K8" t="n">
         <v>4.8</v>
@@ -1501,88 +1501,88 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="R8" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="U8" t="n">
-        <v>2.64</v>
+        <v>2.86</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="X8" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
         <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
         <v>24</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="G9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="n">
         <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="W9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X9" t="n">
         <v>980</v>
@@ -1717,7 +1717,7 @@
         <v>340</v>
       </c>
       <c r="AO9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1747,61 +1747,61 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="n">
         <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W10" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="X10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
         <v>210</v>
@@ -1813,16 +1813,16 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="n">
         <v>210</v>
       </c>
       <c r="AE10" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AF10" t="n">
         <v>8.4</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="AI10" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
@@ -1846,13 +1846,13 @@
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>610</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11">
@@ -1882,94 +1882,94 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="I11" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
         <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="W11" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>18</v>
       </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
         <v>960</v>
@@ -1984,10 +1984,10 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.25</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2047,7 +2047,7 @@
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
         <v>2.32</v>
@@ -2059,22 +2059,22 @@
         <v>4.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W12" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>19.5</v>
@@ -2095,16 +2095,16 @@
         <v>40</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>40</v>
@@ -2116,10 +2116,10 @@
         <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
         <v>44</v>
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
         <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="V13" t="n">
         <v>1.61</v>
       </c>
       <c r="W13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2215,16 +2215,16 @@
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="n">
         <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>34</v>
@@ -2233,31 +2233,31 @@
         <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2290,16 @@
         <v>1.93</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
         <v>4.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.6</v>
@@ -2314,19 +2314,19 @@
         <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R14" t="n">
         <v>1.32</v>
       </c>
       <c r="S14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
         <v>1.84</v>
@@ -2335,16 +2335,16 @@
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
@@ -2368,7 +2368,7 @@
         <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
         <v>60</v>
@@ -2380,7 +2380,7 @@
         <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
@@ -2392,7 +2392,7 @@
         <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G15" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="n">
-        <v>4.4</v>
-      </c>
       <c r="H15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.66</v>
+        <v>2.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>2.36</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF15" t="n">
         <v>32</v>
       </c>
-      <c r="Y15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AG15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO15" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>530</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G16" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
         <v>4.1</v>
@@ -2569,25 +2569,25 @@
         <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q16" t="n">
         <v>1.62</v>
@@ -2599,7 +2599,7 @@
         <v>2.56</v>
       </c>
       <c r="T16" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
         <v>2.48</v>
@@ -2608,7 +2608,7 @@
         <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X16" t="n">
         <v>28</v>
@@ -2617,7 +2617,7 @@
         <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA16" t="n">
         <v>530</v>
@@ -2644,7 +2644,7 @@
         <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
         <v>27</v>
@@ -2701,7 +2701,7 @@
         <v>2.26</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
@@ -2710,22 +2710,22 @@
         <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P17" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
         <v>1.25</v>
@@ -2737,16 +2737,16 @@
         <v>2.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
         <v>1.33</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -2755,10 +2755,10 @@
         <v>12.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
         <v>7.2</v>
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG17" t="n">
         <v>16</v>
@@ -2788,10 +2788,10 @@
         <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
         <v>70</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G18" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
@@ -2860,22 +2860,22 @@
         <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.91</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.89</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
         <v>1.56</v>
@@ -2887,13 +2887,13 @@
         <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
         <v>340</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>7.6</v>
@@ -2908,7 +2908,7 @@
         <v>17.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
@@ -2917,13 +2917,13 @@
         <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AK18" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G19" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H19" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
         <v>4.1</v>
@@ -2977,10 +2977,10 @@
         <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -2992,73 +2992,73 @@
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R19" t="n">
         <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="V19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
         <v>350</v>
       </c>
       <c r="AJ19" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
@@ -3067,7 +3067,7 @@
         <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -3115,40 +3115,40 @@
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
@@ -3160,19 +3160,19 @@
         <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
         <v>980</v>
@@ -3187,7 +3187,7 @@
         <v>960</v>
       </c>
       <c r="AJ20" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK20" t="n">
         <v>250</v>
@@ -3235,10 +3235,10 @@
         <v>4.4</v>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I21" t="n">
         <v>2.06</v>
@@ -3250,28 +3250,28 @@
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
         <v>1.61</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="R21" t="n">
         <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
         <v>2.08</v>
@@ -3283,7 +3283,7 @@
         <v>1.95</v>
       </c>
       <c r="W21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
         <v>12</v>
@@ -3292,7 +3292,7 @@
         <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
         <v>32</v>
@@ -3307,7 +3307,7 @@
         <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
         <v>980</v>
@@ -3337,7 +3337,7 @@
         <v>140</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="H22" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="I22" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="J22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N22" t="n">
         <v>3.2</v>
       </c>
-      <c r="K22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.68</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="W22" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH22" t="n">
         <v>28</v>
       </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>32</v>
-      </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="J2" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>2.86</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>2.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="T2" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="n">
-        <v>540</v>
+        <v>140</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.4</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="N3" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="P3" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S3" t="n">
         <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U3" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>6.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK3" t="n">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
         <v>540</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="AO3" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>5</v>
@@ -967,82 +967,82 @@
         <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1096,88 +1096,88 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W5" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.34</v>
-      </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
         <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1207,82 +1207,82 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="X6" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>42</v>
       </c>
-      <c r="Y6" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>44</v>
-      </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1291,28 +1291,28 @@
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK6" t="n">
         <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -1342,70 +1342,70 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.28</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="O7" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
         <v>11.5</v>
@@ -1414,28 +1414,28 @@
         <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
         <v>120</v>
       </c>
       <c r="AK7" t="n">
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
         <v>540</v>
@@ -1444,7 +1444,7 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="AO7" t="n">
         <v>34</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="U8" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>36</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
         <v>16.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="G9" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="I9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J9" t="n">
         <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>1.31</v>
@@ -1636,88 +1636,88 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
         <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="W9" t="n">
         <v>1.14</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="AL9" t="n">
-        <v>360</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1771,25 +1771,25 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S10" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
         <v>1.73</v>
@@ -1798,10 +1798,10 @@
         <v>1.05</v>
       </c>
       <c r="W10" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="n">
         <v>210</v>
@@ -1813,46 +1813,46 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AD10" t="n">
         <v>210</v>
       </c>
       <c r="AE10" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="n">
         <v>280</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO10" t="n">
-        <v>590</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.39</v>
@@ -1906,88 +1906,88 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="W11" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG11" t="n">
         <v>16</v>
       </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
@@ -2029,61 +2029,61 @@
         <v>3.2</v>
       </c>
       <c r="J12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.2</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
         <v>1.45</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
         <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
         <v>7</v>
@@ -2092,37 +2092,37 @@
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
         <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="I13" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.69</v>
       </c>
-      <c r="U13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.61</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
         <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO13" t="n">
         <v>55</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2287,40 +2287,40 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.43</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
         <v>1.32</v>
@@ -2329,70 +2329,70 @@
         <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
         <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="n">
         <v>530</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
         <v>220</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>300</v>
       </c>
       <c r="AJ14" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15">
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I15" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
         <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
         <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
         <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
         <v>12</v>
@@ -2485,40 +2485,40 @@
         <v>14</v>
       </c>
       <c r="AA15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
         <v>19.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
         <v>75</v>
@@ -2527,7 +2527,7 @@
         <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H16" t="n">
         <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q16" t="n">
         <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S16" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="U16" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>24</v>
       </c>
-      <c r="Z16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>27</v>
-      </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO16" t="n">
         <v>32</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J17" t="n">
         <v>3.25</v>
@@ -2713,52 +2713,52 @@
         <v>1.53</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
         <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
         <v>29</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>7.2</v>
@@ -2767,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF17" t="n">
         <v>25</v>
@@ -2779,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
         <v>85</v>
@@ -2794,10 +2794,10 @@
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2827,73 +2827,73 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="H18" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>3.2</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
         <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
         <v>340</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
         <v>7.6</v>
@@ -2905,34 +2905,34 @@
         <v>190</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>960</v>
       </c>
       <c r="AJ18" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
-        <v>90</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
@@ -2962,49 +2962,49 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
         <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U19" t="n">
         <v>1.94</v>
@@ -3013,61 +3013,61 @@
         <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
         <v>270</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN19" t="n">
         <v>22</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AO19" t="n">
         <v>60</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>210</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
@@ -3121,7 +3121,7 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -3130,7 +3130,7 @@
         <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R20" t="n">
         <v>1.25</v>
@@ -3139,22 +3139,22 @@
         <v>4.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
         <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z20" t="n">
         <v>12</v>
@@ -3163,10 +3163,10 @@
         <v>65</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>11</v>
@@ -3178,7 +3178,7 @@
         <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="AH20" t="n">
         <v>60</v>
@@ -3187,7 +3187,7 @@
         <v>960</v>
       </c>
       <c r="AJ20" t="n">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="AK20" t="n">
         <v>250</v>
@@ -3199,10 +3199,10 @@
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="I21" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
         <v>1.52</v>
@@ -3256,64 +3256,64 @@
         <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.8</v>
+        <v>1.02</v>
       </c>
       <c r="O21" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
         <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
         <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
@@ -3322,7 +3322,7 @@
         <v>300</v>
       </c>
       <c r="AJ21" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="AK21" t="n">
         <v>470</v>
@@ -3334,7 +3334,7 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
         <v>140</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G22" t="n">
         <v>5.2</v>
       </c>
-      <c r="G22" t="n">
-        <v>5.7</v>
-      </c>
       <c r="H22" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="I22" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="J22" t="n">
         <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.47</v>
@@ -3397,7 +3397,7 @@
         <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
         <v>2.2</v>
@@ -3409,70 +3409,70 @@
         <v>4.1</v>
       </c>
       <c r="T22" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V22" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="W22" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X22" t="n">
         <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>15.5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>1.65</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>1.72</v>
       </c>
       <c r="L2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="S2" t="n">
-        <v>4.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>14.5</v>
+        <v>1.82</v>
       </c>
       <c r="AD2" t="n">
-        <v>60</v>
+        <v>5.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>FC Inter</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.15</v>
       </c>
-      <c r="N3" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.65</v>
-      </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>6.8</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>2.36</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.61</v>
+        <v>3.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD3" t="n">
         <v>9.4</v>
       </c>
-      <c r="AC3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH3" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>32</v>
-      </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>540</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>1.43</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>1.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>9.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>1.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>2.48</v>
       </c>
       <c r="U4" t="n">
-        <v>2.36</v>
+        <v>1.61</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>3.15</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.5</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>19.5</v>
+        <v>6</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>280</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>6.8</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="AJ4" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Inter</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>4.1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.61</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>5.9</v>
+        <v>2.26</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>2.28</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.64</v>
+        <v>1.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>2.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.66</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.36</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>2.6</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>8.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="n">
         <v>150</v>
       </c>
-      <c r="AB5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>28</v>
-      </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.4</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.28</v>
+        <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>1.76</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>12.5</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="S6" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>3.3</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="X6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y6" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA6" t="n">
         <v>130</v>
       </c>
-      <c r="AA6" t="n">
-        <v>350</v>
-      </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Crvena Zvezda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>290</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>320</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>230</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>990</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>340</v>
+      </c>
+      <c r="AO7" t="n">
         <v>4.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>540</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HJK Helsinki</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>1.94</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S8" t="n">
         <v>4.7</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB8" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X8" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y8" t="n">
+      <c r="AC8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK8" t="n">
         <v>32</v>
       </c>
-      <c r="Z8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Crvena Zvezda</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.8</v>
+        <v>1.14</v>
       </c>
       <c r="G9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>320</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>440</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>7.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X9" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AK9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>410</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO9" t="n">
         <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.8</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.17</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>14.5</v>
+        <v>2.02</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>2.06</v>
       </c>
       <c r="J10" t="n">
-        <v>8.800000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X10" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
         <v>10.5</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="AE10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK10" t="n">
         <v>44</v>
       </c>
-      <c r="Y10" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>240</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AL10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO10" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>210</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>390</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.65</v>
+        <v>1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>1.96</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.18</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
         <v>16</v>
       </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
         <v>21</v>
       </c>
-      <c r="AF11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>2.52</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.1</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.99</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="W12" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO12" t="n">
         <v>19</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Grasshoppers Zurich</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="I13" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
         <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="V13" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="W13" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>80</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL13" t="n">
         <v>44</v>
       </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>130</v>
-      </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.87</v>
+        <v>2.54</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>2.56</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>1.96</v>
+        <v>2.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="n">
         <v>36</v>
       </c>
       <c r="AA14" t="n">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>260</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Grasshoppers Zurich</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.06</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
         <v>12</v>
       </c>
-      <c r="Z15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN15" t="n">
         <v>75</v>
       </c>
-      <c r="AN15" t="n">
-        <v>36</v>
-      </c>
       <c r="AO15" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.93</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.56</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="W16" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AA16" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>17.5</v>
+        <v>85</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.199999999999999</v>
+        <v>90</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.7</v>
-      </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AF17" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO17" t="n">
         <v>55</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,117 +2813,117 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94</v>
+        <v>4.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.92</v>
+        <v>1.99</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R18" t="n">
         <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="W18" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="X18" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="AJ18" t="n">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AL18" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
@@ -2932,13 +2932,13 @@
         <v>600</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>2.04</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>2.12</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="T19" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>270</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>470</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -3083,60 +3083,60 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>22:20:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H20" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="I20" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
         <v>2.02</v>
@@ -3145,334 +3145,64 @@
         <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X20" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z20" t="n">
         <v>11</v>
       </c>
-      <c r="Y20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>12</v>
-      </c>
       <c r="AA20" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG20" t="n">
         <v>19.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>960</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="AK20" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-10-30</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20:10:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Boyaca Chico</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>330</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>470</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>450</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-10-30</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>22:20:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Llaneros FC</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X22" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
